--- a/ステージ仕様書0628.xlsx
+++ b/ステージ仕様書0628.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>画面について：</t>
     <rPh sb="0" eb="2">
@@ -920,6 +920,88 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル発動する時指示の動作実行しない、スキルの動作が優先</t>
+    <rPh sb="3" eb="5">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気合後の攻撃指示は強化攻撃になる。攻撃力*1.7</t>
+    <rPh sb="0" eb="2">
+      <t>キアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気合後の防御指示は強化防御になる。全防御*1.7</t>
+    <rPh sb="0" eb="2">
+      <t>キアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ボウギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1271,9 +1353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D78"/>
+  <dimension ref="B2:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
@@ -1547,39 +1631,69 @@
         <v>37</v>
       </c>
     </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="D70" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.5">
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="C73" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.5">
-      <c r="D72" s="2" t="s">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="D74" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.5">
-      <c r="D73" s="2" t="s">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="D75" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.5">
-      <c r="C75" s="2" t="s">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="C77" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.5">
-      <c r="D76" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.5">
-      <c r="D77" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D78" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="D79" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="D80" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B82" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C85" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
